--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.74777418604128</v>
+        <v>33.65726433333334</v>
       </c>
       <c r="H2">
-        <v>8.74777418604128</v>
+        <v>100.971793</v>
       </c>
       <c r="I2">
-        <v>0.5421190189818125</v>
+        <v>0.8115737688004754</v>
       </c>
       <c r="J2">
-        <v>0.5421190189818125</v>
+        <v>0.8115737688004754</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.9995319421088</v>
+        <v>52.91030366666666</v>
       </c>
       <c r="N2">
-        <v>41.9995319421088</v>
+        <v>158.730911</v>
       </c>
       <c r="O2">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="P2">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="Q2">
-        <v>367.4024213489956</v>
+        <v>1780.816076465936</v>
       </c>
       <c r="R2">
-        <v>367.4024213489956</v>
+        <v>16027.34468819342</v>
       </c>
       <c r="S2">
-        <v>0.1972322391837698</v>
+        <v>0.3377295600469867</v>
       </c>
       <c r="T2">
-        <v>0.1972322391837698</v>
+        <v>0.3377295600469867</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.74777418604128</v>
+        <v>33.65726433333334</v>
       </c>
       <c r="H3">
-        <v>8.74777418604128</v>
+        <v>100.971793</v>
       </c>
       <c r="I3">
-        <v>0.5421190189818125</v>
+        <v>0.8115737688004754</v>
       </c>
       <c r="J3">
-        <v>0.5421190189818125</v>
+        <v>0.8115737688004754</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.9218738416455</v>
+        <v>47.26005833333333</v>
       </c>
       <c r="N3">
-        <v>46.9218738416455</v>
+        <v>141.780175</v>
       </c>
       <c r="O3">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="P3">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="Q3">
-        <v>410.4619567526321</v>
+        <v>1590.644275733753</v>
       </c>
       <c r="R3">
-        <v>410.4619567526321</v>
+        <v>14315.79848160378</v>
       </c>
       <c r="S3">
-        <v>0.220347842381727</v>
+        <v>0.3016637139198097</v>
       </c>
       <c r="T3">
-        <v>0.220347842381727</v>
+        <v>0.3016637139198097</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.74777418604128</v>
+        <v>33.65726433333334</v>
       </c>
       <c r="H4">
-        <v>8.74777418604128</v>
+        <v>100.971793</v>
       </c>
       <c r="I4">
-        <v>0.5421190189818125</v>
+        <v>0.8115737688004754</v>
       </c>
       <c r="J4">
-        <v>0.5421190189818125</v>
+        <v>0.8115737688004754</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.5198889476648</v>
+        <v>26.97460733333333</v>
       </c>
       <c r="N4">
-        <v>26.5198889476648</v>
+        <v>80.923822</v>
       </c>
       <c r="O4">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="P4">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="Q4">
-        <v>231.9899999530636</v>
+        <v>907.8914893058719</v>
       </c>
       <c r="R4">
-        <v>231.9899999530636</v>
+        <v>8171.023403752846</v>
       </c>
       <c r="S4">
-        <v>0.1245389374163157</v>
+        <v>0.172180494833679</v>
       </c>
       <c r="T4">
-        <v>0.1245389374163157</v>
+        <v>0.172180494833679</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.566221770718465</v>
+        <v>0.56955</v>
       </c>
       <c r="H5">
-        <v>0.566221770718465</v>
+        <v>1.70865</v>
       </c>
       <c r="I5">
-        <v>0.03509002225478691</v>
+        <v>0.01373349406661455</v>
       </c>
       <c r="J5">
-        <v>0.03509002225478691</v>
+        <v>0.01373349406661455</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.9995319421088</v>
+        <v>52.91030366666666</v>
       </c>
       <c r="N5">
-        <v>41.9995319421088</v>
+        <v>158.730911</v>
       </c>
       <c r="O5">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="P5">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="Q5">
-        <v>23.78104934560758</v>
+        <v>30.13506345335</v>
       </c>
       <c r="R5">
-        <v>23.78104934560758</v>
+        <v>271.21557108015</v>
       </c>
       <c r="S5">
-        <v>0.01276635465643408</v>
+        <v>0.005715077405570918</v>
       </c>
       <c r="T5">
-        <v>0.01276635465643408</v>
+        <v>0.005715077405570918</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.566221770718465</v>
+        <v>0.56955</v>
       </c>
       <c r="H6">
-        <v>0.566221770718465</v>
+        <v>1.70865</v>
       </c>
       <c r="I6">
-        <v>0.03509002225478691</v>
+        <v>0.01373349406661455</v>
       </c>
       <c r="J6">
-        <v>0.03509002225478691</v>
+        <v>0.01373349406661455</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.9218738416455</v>
+        <v>47.26005833333333</v>
       </c>
       <c r="N6">
-        <v>46.9218738416455</v>
+        <v>141.780175</v>
       </c>
       <c r="O6">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="P6">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="Q6">
-        <v>26.56818649204494</v>
+        <v>26.91696622374999</v>
       </c>
       <c r="R6">
-        <v>26.56818649204494</v>
+        <v>242.25269601375</v>
       </c>
       <c r="S6">
-        <v>0.01426257043608441</v>
+        <v>0.005104769257579519</v>
       </c>
       <c r="T6">
-        <v>0.01426257043608441</v>
+        <v>0.005104769257579519</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.566221770718465</v>
+        <v>0.56955</v>
       </c>
       <c r="H7">
-        <v>0.566221770718465</v>
+        <v>1.70865</v>
       </c>
       <c r="I7">
-        <v>0.03509002225478691</v>
+        <v>0.01373349406661455</v>
       </c>
       <c r="J7">
-        <v>0.03509002225478691</v>
+        <v>0.01373349406661455</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.5198889476648</v>
+        <v>26.97460733333333</v>
       </c>
       <c r="N7">
-        <v>26.5198889476648</v>
+        <v>80.923822</v>
       </c>
       <c r="O7">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="P7">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="Q7">
-        <v>15.01613847920381</v>
+        <v>15.3633876067</v>
       </c>
       <c r="R7">
-        <v>15.01613847920381</v>
+        <v>138.2704884603</v>
       </c>
       <c r="S7">
-        <v>0.008061097162268424</v>
+        <v>0.00291364740346411</v>
       </c>
       <c r="T7">
-        <v>0.008061097162268424</v>
+        <v>0.00291364740346411</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.82226541711904</v>
+        <v>7.244787666666667</v>
       </c>
       <c r="H8">
-        <v>6.82226541711904</v>
+        <v>21.734363</v>
       </c>
       <c r="I8">
-        <v>0.4227909587634007</v>
+        <v>0.1746927371329101</v>
       </c>
       <c r="J8">
-        <v>0.4227909587634007</v>
+        <v>0.1746927371329101</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.9995319421088</v>
+        <v>52.91030366666666</v>
       </c>
       <c r="N8">
-        <v>41.9995319421088</v>
+        <v>158.730911</v>
       </c>
       <c r="O8">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="P8">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="Q8">
-        <v>286.5319543038354</v>
+        <v>383.3239154438548</v>
       </c>
       <c r="R8">
-        <v>286.5319543038354</v>
+        <v>3449.915238994693</v>
       </c>
       <c r="S8">
-        <v>0.1538186349930586</v>
+        <v>0.07269690510389873</v>
       </c>
       <c r="T8">
-        <v>0.1538186349930586</v>
+        <v>0.07269690510389873</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.82226541711904</v>
+        <v>7.244787666666667</v>
       </c>
       <c r="H9">
-        <v>6.82226541711904</v>
+        <v>21.734363</v>
       </c>
       <c r="I9">
-        <v>0.4227909587634007</v>
+        <v>0.1746927371329101</v>
       </c>
       <c r="J9">
-        <v>0.4227909587634007</v>
+        <v>0.1746927371329101</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.9218738416455</v>
+        <v>47.26005833333333</v>
       </c>
       <c r="N9">
-        <v>46.9218738416455</v>
+        <v>141.780175</v>
       </c>
       <c r="O9">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="P9">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="Q9">
-        <v>320.1134772162806</v>
+        <v>342.3890877392805</v>
       </c>
       <c r="R9">
-        <v>320.1134772162806</v>
+        <v>3081.501789653525</v>
       </c>
       <c r="S9">
-        <v>0.1718461671331669</v>
+        <v>0.06493366580368932</v>
       </c>
       <c r="T9">
-        <v>0.1718461671331669</v>
+        <v>0.06493366580368932</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.82226541711904</v>
+        <v>7.244787666666667</v>
       </c>
       <c r="H10">
-        <v>6.82226541711904</v>
+        <v>21.734363</v>
       </c>
       <c r="I10">
-        <v>0.4227909587634007</v>
+        <v>0.1746927371329101</v>
       </c>
       <c r="J10">
-        <v>0.4227909587634007</v>
+        <v>0.1746927371329101</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.5198889476648</v>
+        <v>26.97460733333333</v>
       </c>
       <c r="N10">
-        <v>26.5198889476648</v>
+        <v>80.923822</v>
       </c>
       <c r="O10">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="P10">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="Q10">
-        <v>180.925721233491</v>
+        <v>195.4253025217096</v>
       </c>
       <c r="R10">
-        <v>180.925721233491</v>
+        <v>1758.827722695386</v>
       </c>
       <c r="S10">
-        <v>0.09712615663717515</v>
+        <v>0.037062166225322</v>
       </c>
       <c r="T10">
-        <v>0.09712615663717515</v>
+        <v>0.037062166225322</v>
       </c>
     </row>
   </sheetData>
